--- a/spreadsheets/BSE5_lc.xlsx
+++ b/spreadsheets/BSE5_lc.xlsx
@@ -467,12 +467,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>R2_test</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>R2_train</t>
         </is>
       </c>
     </row>
@@ -482,717 +482,737 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>M-M-CZ_HWE-CNOT</t>
+          <t>elastic</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.130334578128702</v>
+        <v>0.1229393858306325</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2015366612788965</v>
+        <v>0.1787347979346122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>elastic</t>
+          <t>gpr</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1229393858306325</v>
+        <v>0.2147065514425556</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1787347979346122</v>
+        <v>0.3253920994492813</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>gpr</t>
+          <t>grad</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2147065514425556</v>
+        <v>0.3352246580636133</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3253920994492813</v>
+        <v>0.9010131004108247</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>grad</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3352246580636133</v>
+        <v>0.3962536320372274</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9010131004108247</v>
+        <v>0.9998081665942952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>krr</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3962536320372274</v>
+        <v>0.281113580579524</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998081665942952</v>
+        <v>0.4241833387132662</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>krr</t>
+          <t>lasso</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.281113580579524</v>
+        <v>0.1229093980240636</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4241833387132662</v>
+        <v>0.1786000210196875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>rfr</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1229093980240636</v>
+        <v>0.4219956383955088</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1786000210196875</v>
+        <v>0.8895797589377894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>rfr</t>
+          <t>ridge</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4219956383955088</v>
+        <v>0.1226266769517186</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8895797589377894</v>
+        <v>0.1789316883307436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1226266769517186</v>
+        <v>0.2718858990182798</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1789316883307436</v>
+        <v>0.4020147300216332</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" s="1" t="n">
+        <v>0.3</v>
+      </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>elastic</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2718858990182798</v>
+        <v>0.2012101834465415</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4020147300216332</v>
+        <v>0.2099280472097744</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>M-M-CZ_HWE-CNOT</t>
+          <t>gpr</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.008833720871252781</v>
+        <v>0.3856695813424744</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.017172987869426</v>
+        <v>0.4211481180468637</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>elastic</t>
+          <t>grad</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2012101834465415</v>
+        <v>0.521498209248728</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2099280472097744</v>
+        <v>0.8895753219284719</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>gpr</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.3856695813424744</v>
+        <v>0.5836778466008399</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4211481180468637</v>
+        <v>0.9998439608156848</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>grad</t>
+          <t>krr</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.521498209248728</v>
+        <v>0.4384632995517915</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8895753219284719</v>
+        <v>0.4967274218906799</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>lasso</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5836778466008399</v>
+        <v>0.2001858608784282</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998439608156848</v>
+        <v>0.2094310195204002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>krr</t>
+          <t>rfr</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.4384632995517915</v>
+        <v>0.5589300987694829</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4967274218906799</v>
+        <v>0.9454686330519815</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>ridge</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2001858608784282</v>
+        <v>0.201498304806018</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2094310195204002</v>
+        <v>0.2099828483822684</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>rfr</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5589300987694829</v>
+        <v>0.4287396756136655</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9454686330519815</v>
+        <v>0.4881492236503882</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="n">
+        <v>0.5</v>
+      </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>elastic</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.201498304806018</v>
+        <v>0.2050469249411361</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2099828483822684</v>
+        <v>0.1960156998009188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>gpr</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.4287396756136655</v>
+        <v>0.4377479706550371</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4881492236503882</v>
+        <v>0.4382606104969363</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>M-M-CZ_HWE-CNOT</t>
+          <t>grad</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.1792439497256104</v>
+        <v>0.5721404543629793</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1714631729183812</v>
+        <v>0.935045021541691</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>elastic</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2050469249411361</v>
+        <v>0.6221526524824333</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1960156998009188</v>
+        <v>0.9998200566975985</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>gpr</t>
+          <t>krr</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.4377479706550371</v>
+        <v>0.4612332189896106</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4382606104969363</v>
+        <v>0.4724465336096954</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>grad</t>
+          <t>lasso</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5721404543629793</v>
+        <v>0.2039480544825826</v>
       </c>
       <c r="D25" t="n">
-        <v>0.935045021541691</v>
+        <v>0.1954424318834731</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>rfr</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.6221526524824333</v>
+        <v>0.5970081661074975</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9998200566975985</v>
+        <v>0.9453107321011074</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>krr</t>
+          <t>ridge</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4612332189896106</v>
+        <v>0.2054791082009315</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4724465336096954</v>
+        <v>0.1960995425602104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.2039480544825826</v>
+        <v>0.4628491981043433</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1954424318834731</v>
+        <v>0.4753995438699756</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
+      <c r="A29" s="1" t="n">
+        <v>0.7</v>
+      </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>rfr</t>
+          <t>elastic</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5970081661074975</v>
+        <v>0.1784973034197431</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9453107321011074</v>
+        <v>0.1622854090904476</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>gpr</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.2054791082009315</v>
+        <v>0.4516286893412482</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1960995425602104</v>
+        <v>0.434667415178429</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>grad</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4628491981043433</v>
+        <v>0.5957473497404675</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4753995438699756</v>
+        <v>0.9623787710507469</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>0.7</v>
-      </c>
+      <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>M-M-CZ_HWE-CNOT</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2063952442129647</v>
+        <v>0.6366395954734396</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1907536907853911</v>
+        <v>0.9998420903933504</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>elastic</t>
+          <t>krr</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1784973034197431</v>
+        <v>0.4713801345925647</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1622854090904476</v>
+        <v>0.4576935075821706</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>gpr</t>
+          <t>lasso</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.4516286893412482</v>
+        <v>0.1769675208180489</v>
       </c>
       <c r="D34" t="n">
-        <v>0.434667415178429</v>
+        <v>0.1617290340203746</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>grad</t>
+          <t>rfr</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5957473497404675</v>
+        <v>0.6429916918719966</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9623787710507469</v>
+        <v>0.9482809842566681</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>ridge</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.6366395954734396</v>
+        <v>0.179087608140127</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9998420903933504</v>
+        <v>0.1623443221614591</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>krr</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.4713801345925647</v>
+        <v>0.4709127086078323</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4576935075821706</v>
+        <v>0.4577213517196661</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="1" t="n">
+        <v>0.8</v>
+      </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>elastic</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.1769675208180489</v>
+        <v>0.1827609505481876</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1617290340203746</v>
+        <v>0.1656452952541617</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>rfr</t>
+          <t>gpr</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.6429916918719966</v>
+        <v>0.4607361513004546</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9482809842566681</v>
+        <v>0.4444530773894599</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>grad</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.179087608140127</v>
+        <v>0.6030092188391094</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1623443221614591</v>
+        <v>0.953052369943607</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.4709127086078323</v>
+        <v>0.6725240683646982</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4577213517196661</v>
+        <v>0.9998507069505753</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>M-M-CZ_HWE-CNOT</t>
+          <t>krr</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.172746527450073</v>
+        <v>0.4727303549545512</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1558597056509922</v>
+        <v>0.459625813870326</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>elastic</t>
+          <t>lasso</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.1827609505481876</v>
+        <v>0.1812492665466111</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1656452952541617</v>
+        <v>0.1650781230352283</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>gpr</t>
+          <t>rfr</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.4607361513004546</v>
+        <v>0.6400467178205107</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4444530773894599</v>
+        <v>0.9462003991789679</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>grad</t>
+          <t>ridge</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.6030092188391094</v>
+        <v>0.1833681092943213</v>
       </c>
       <c r="D45" t="n">
-        <v>0.953052369943607</v>
+        <v>0.1657155811508407</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.6725240683646982</v>
+        <v>0.4670994467363315</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9998507069505753</v>
+        <v>0.4577772229489147</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>krr</t>
+          <t>M-M-CZ_HWE-CNOT</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.4727303549545512</v>
+        <v>0.130334578128702</v>
       </c>
       <c r="D47" t="n">
-        <v>0.459625813870326</v>
+        <v>0.2015366612788965</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n"/>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>M-M-CZ_HWE-CNOT</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.1812492665466111</v>
+        <v>-0.008833720871252781</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1650781230352283</v>
+        <v>-0.017172987869426</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>rfr</t>
+          <t>M-M-CZ_HWE-CNOT</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.6400467178205107</v>
+        <v>0.1792439497256104</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9462003991789679</v>
+        <v>0.1714631729183812</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n"/>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>M-M-CZ_HWE-CNOT</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.1833681092943213</v>
+        <v>0.2063952442129647</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1657155811508407</v>
+        <v>0.1907536907853911</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>M-M-CZ_HWE-CNOT</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.4670994467363315</v>
+        <v>0.172746527450073</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4577772229489147</v>
+        <v>0.1558597056509922</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
